--- a/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -137,6 +137,33 @@
   </si>
   <si>
     <t>Destination Pond</t>
+  </si>
+  <si>
+    <t>End Tank</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>End Lat</t>
+  </si>
+  <si>
+    <t>End Long</t>
+  </si>
+  <si>
+    <t>crew lead</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>fishing seconds</t>
+  </si>
+  <si>
+    <t># of salmon collected</t>
+  </si>
+  <si>
+    <t># of salmon observed</t>
   </si>
 </sst>
 </file>
@@ -551,29 +578,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U5"/>
+  <dimension ref="A2:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="7" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="22" width="16.42578125" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
@@ -586,20 +614,29 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -625,13 +662,13 @@
         <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>5</v>
@@ -640,31 +677,58 @@
         <v>6</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
@@ -684,32 +748,51 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="5"/>
-      <c r="N4" s="1" t="s">
+      <c r="K4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="R4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P4">
+      <c r="S4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4">
         <v>110</v>
       </c>
-      <c r="Q4">
+      <c r="W4">
+        <v>110</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="R4" s="9">
+      <c r="Y4" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S4">
+      <c r="Z4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA4">
         <v>350</v>
       </c>
-      <c r="T4">
+      <c r="AB4">
+        <v>350</v>
+      </c>
+      <c r="AC4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -730,36 +813,53 @@
       <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="L5" s="10">
         <v>45.549656159192402</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>-65.013694691467194</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P5">
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5">
         <v>200</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
+        <v>200</v>
+      </c>
+      <c r="X5">
         <v>5</v>
       </c>
-      <c r="R5" s="9">
+      <c r="Y5" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S5">
+      <c r="Z5" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA5">
         <v>788</v>
       </c>
-      <c r="T5">
+      <c r="AB5">
+        <v>788</v>
+      </c>
+      <c r="AC5">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="3">
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -578,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD5"/>
+  <dimension ref="A2:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,6 +853,42 @@
       </c>
       <c r="AC5">
         <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10">
+        <v>45.549656159192402</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-65.013694691467194</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="R6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -112,18 +112,12 @@
     <t>Covered Bridge</t>
   </si>
   <si>
-    <t>WS</t>
-  </si>
-  <si>
     <t>QS</t>
   </si>
   <si>
     <t>Apr</t>
   </si>
   <si>
-    <t>FP</t>
-  </si>
-  <si>
     <t>Fundy PWR Mouth</t>
   </si>
   <si>
@@ -164,6 +158,15 @@
   </si>
   <si>
     <t># of salmon observed</t>
+  </si>
+  <si>
+    <t>Year Class</t>
+  </si>
+  <si>
+    <t>2021 WS</t>
+  </si>
+  <si>
+    <t>2021 FP</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="A2:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -656,19 +659,19 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>5</v>
@@ -683,25 +686,25 @@
         <v>6</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>15</v>
@@ -713,13 +716,13 @@
         <v>16</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>10</v>
@@ -733,7 +736,7 @@
         <v>2021</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -743,29 +746,29 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
       </c>
       <c r="I4">
         <v>13</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="10"/>
       <c r="N4" s="5"/>
       <c r="P4" s="5"/>
       <c r="R4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V4">
         <v>110</v>
@@ -797,7 +800,7 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -808,10 +811,10 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>21</v>
@@ -825,10 +828,10 @@
       <c r="N5" s="5"/>
       <c r="P5" s="5"/>
       <c r="R5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V5">
         <v>200</v>
@@ -860,7 +863,7 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -871,7 +874,7 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L6" s="10">
         <v>45.549656159192402</v>
@@ -882,10 +885,10 @@
       <c r="N6" s="5"/>
       <c r="P6" s="5"/>
       <c r="R6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U6">
         <v>150</v>

--- a/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>Year</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>2021 FP</t>
+  </si>
+  <si>
+    <t>Cool site</t>
+  </si>
+  <si>
+    <t>test comment</t>
   </si>
 </sst>
 </file>
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,6 +800,9 @@
       <c r="AC4">
         <v>500</v>
       </c>
+      <c r="AD4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -856,6 +865,9 @@
       </c>
       <c r="AC5">
         <v>500</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">

--- a/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-electrofishing.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D353BEE-9E35-4D8B-9640-02D4B54E3F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="4140" yWindow="1875" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="Sample Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Year</t>
   </si>
@@ -154,12 +164,6 @@
     <t>fishing seconds</t>
   </si>
   <si>
-    <t># of salmon collected</t>
-  </si>
-  <si>
-    <t># of salmon observed</t>
-  </si>
-  <si>
     <t>Year Class</t>
   </si>
   <si>
@@ -173,12 +177,15 @@
   </si>
   <si>
     <t>test comment</t>
+  </si>
+  <si>
+    <t># Fish Released</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -586,11 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,142 +609,104 @@
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="18" max="19" width="10.140625" customWidth="1"/>
-    <col min="20" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" customWidth="1"/>
+    <col min="20" max="21" width="16.42578125" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="23" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="1"/>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
@@ -752,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -776,35 +745,35 @@
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="U4">
+        <v>110</v>
+      </c>
       <c r="V4">
         <v>110</v>
       </c>
       <c r="W4">
-        <v>110</v>
-      </c>
-      <c r="X4">
         <v>4</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y4" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z4" s="9">
-        <v>1.1000000000000001</v>
+      <c r="Z4">
+        <v>350</v>
       </c>
       <c r="AA4">
         <v>350</v>
       </c>
       <c r="AB4">
-        <v>350</v>
-      </c>
-      <c r="AC4">
         <v>500</v>
       </c>
-      <c r="AD4" t="s">
-        <v>49</v>
+      <c r="AC4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -820,7 +789,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -842,35 +811,35 @@
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="U5">
+        <v>200</v>
+      </c>
       <c r="V5">
         <v>200</v>
       </c>
       <c r="W5">
-        <v>200</v>
-      </c>
-      <c r="X5">
         <v>5</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y5" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z5" s="9">
-        <v>1.1000000000000001</v>
+      <c r="Z5">
+        <v>788</v>
       </c>
       <c r="AA5">
         <v>788</v>
       </c>
       <c r="AB5">
-        <v>788</v>
-      </c>
-      <c r="AC5">
         <v>500</v>
       </c>
-      <c r="AD5" t="s">
-        <v>50</v>
+      <c r="AC5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
@@ -886,7 +855,7 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L6" s="10">
         <v>45.549656159192402</v>
@@ -902,27 +871,22 @@
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U6">
+      <c r="T6">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,90 +904,90 @@
     <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="13" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="1"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1116,10 +1080,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
